--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/116.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/116.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1893930179955464</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.879633707790512</v>
+        <v>-1.770471546680506</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06589540936353241</v>
+        <v>0.06262010385242614</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3261216946116899</v>
+        <v>-0.2505278522921031</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1939899764209544</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.875242194442083</v>
+        <v>-1.786742969346952</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04006732960210943</v>
+        <v>0.04197054700008242</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2997096537562644</v>
+        <v>-0.2058933920693795</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2017596430101614</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.912501588071952</v>
+        <v>-1.849737575610087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04277801880930967</v>
+        <v>0.07042251663671364</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3564986896336719</v>
+        <v>-0.2422548077905467</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.202785440125405</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.057004413502962</v>
+        <v>-2.035690620581429</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1661748218427984</v>
+        <v>0.143674218503805</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.404616454171834</v>
+        <v>-0.2789326013550953</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1888499710256252</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.911849157146173</v>
+        <v>-1.97886380824511</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3650285275323208</v>
+        <v>0.3261738655230133</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4460934320372283</v>
+        <v>-0.2962247754217047</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1574017687023636</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.765927353477311</v>
+        <v>-1.827349514638267</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5151143987865839</v>
+        <v>0.4467169718895839</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4534928959264629</v>
+        <v>-0.2932420091868398</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1157280629755106</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.420336502214092</v>
+        <v>-1.561034136419358</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7480267302228106</v>
+        <v>0.6329596363792451</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4677881375861157</v>
+        <v>-0.3286889197985314</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.07632005005367166</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9130875911168082</v>
+        <v>-1.08796819857936</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9043394211209393</v>
+        <v>0.7490010480588958</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4378109434209441</v>
+        <v>-0.324075469753999</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04887209666267917</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3023713200903839</v>
+        <v>-0.5375848674819521</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9424794784491763</v>
+        <v>0.7042265001343764</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3968156154066677</v>
+        <v>-0.3114959089365639</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03447220526284839</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3771469007472148</v>
+        <v>-0.05369518715433079</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9042622941839956</v>
+        <v>0.6611692070711961</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3171261753334565</v>
+        <v>-0.275140789291882</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.02619377227340625</v>
       </c>
       <c r="E12" t="n">
-        <v>1.158604895956731</v>
+        <v>0.5606303097172359</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9043236809297264</v>
+        <v>0.6382105641679042</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1995028744368987</v>
+        <v>-0.2268577527459834</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.01338002500084782</v>
       </c>
       <c r="E13" t="n">
-        <v>2.017573888775579</v>
+        <v>1.183548376971983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7195983708729989</v>
+        <v>0.4339201964334093</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03669105858691946</v>
+        <v>-0.09110962166764813</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.01513170378321541</v>
       </c>
       <c r="E14" t="n">
-        <v>2.880991059631222</v>
+        <v>1.733357978099677</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5321405636216935</v>
+        <v>0.1589642402481199</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1352327539562695</v>
+        <v>0.00364947747289587</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.06716946901015389</v>
       </c>
       <c r="E15" t="n">
-        <v>3.854136251470979</v>
+        <v>2.365156661236803</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3492867623001926</v>
+        <v>-0.03009906650691218</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3145906588093615</v>
+        <v>0.1418231720171554</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1418952928483556</v>
       </c>
       <c r="E16" t="n">
-        <v>4.70680444574726</v>
+        <v>2.841100693040099</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1069586484803452</v>
+        <v>-0.4015124884646289</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5447091063052795</v>
+        <v>0.323104528236477</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2330220519525432</v>
       </c>
       <c r="E17" t="n">
-        <v>5.481528787155852</v>
+        <v>3.372003176482729</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06734980303161425</v>
+        <v>-0.7156347624452434</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7790978676772862</v>
+        <v>0.4877847047834401</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3370101796404382</v>
       </c>
       <c r="E18" t="n">
-        <v>6.255769904694204</v>
+        <v>3.856245437093521</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.306267017415603</v>
+        <v>-1.050423907488536</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9102356967493317</v>
+        <v>0.5941584910200619</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4556468920098899</v>
       </c>
       <c r="E19" t="n">
-        <v>6.838385212348047</v>
+        <v>4.14820237380798</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5795230329498876</v>
+        <v>-1.402084176483489</v>
       </c>
       <c r="G19" t="n">
-        <v>1.159585509869302</v>
+        <v>0.8049416876299222</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5890541342830365</v>
       </c>
       <c r="E20" t="n">
-        <v>7.338463679338246</v>
+        <v>4.410811724005786</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.851395485676549</v>
+        <v>-1.718908254285817</v>
       </c>
       <c r="G20" t="n">
-        <v>1.374242367536683</v>
+        <v>0.9966288842601626</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7307304241045235</v>
       </c>
       <c r="E21" t="n">
-        <v>7.665854934511425</v>
+        <v>4.63210307226945</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.150200192578226</v>
+        <v>-2.081046768571269</v>
       </c>
       <c r="G21" t="n">
-        <v>1.584373920230325</v>
+        <v>1.19490807297041</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8703643311034781</v>
       </c>
       <c r="E22" t="n">
-        <v>7.894786571589883</v>
+        <v>4.743718342180003</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.354178117517142</v>
+        <v>-2.337298655538142</v>
       </c>
       <c r="G22" t="n">
-        <v>1.806482184417943</v>
+        <v>1.352483127203822</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9983476962540097</v>
       </c>
       <c r="E23" t="n">
-        <v>8.072195840770805</v>
+        <v>4.810787296938625</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.561540970576416</v>
+        <v>-2.554510146239394</v>
       </c>
       <c r="G23" t="n">
-        <v>1.946003239330036</v>
+        <v>1.460001225341629</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.111721914031278</v>
       </c>
       <c r="E24" t="n">
-        <v>8.18102037477929</v>
+        <v>4.826399992602806</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.727695216030478</v>
+        <v>-2.697630982881902</v>
       </c>
       <c r="G24" t="n">
-        <v>2.047064711032268</v>
+        <v>1.513769718525261</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.209213853822814</v>
       </c>
       <c r="E25" t="n">
-        <v>8.199670927347583</v>
+        <v>4.881885740647777</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.856192628026541</v>
+        <v>-2.890220092468648</v>
       </c>
       <c r="G25" t="n">
-        <v>2.145810800607067</v>
+        <v>1.616740475421631</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.288385787304332</v>
       </c>
       <c r="E26" t="n">
-        <v>8.17689172262412</v>
+        <v>4.957090800244403</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.977854074978796</v>
+        <v>-3.023614277951078</v>
       </c>
       <c r="G26" t="n">
-        <v>2.185007024765697</v>
+        <v>1.661689739468614</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.34695852770939</v>
       </c>
       <c r="E27" t="n">
-        <v>8.097606805465082</v>
+        <v>4.920337453762031</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.040806182725656</v>
+        <v>-3.107765275223616</v>
       </c>
       <c r="G27" t="n">
-        <v>2.235588129228694</v>
+        <v>1.678860714062884</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.382055326653377</v>
       </c>
       <c r="E28" t="n">
-        <v>7.989407157047752</v>
+        <v>4.928583739938526</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.072717846390907</v>
+        <v>-3.140178263979001</v>
       </c>
       <c r="G28" t="n">
-        <v>2.226924727985055</v>
+        <v>1.703501983406846</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.393395895541298</v>
       </c>
       <c r="E29" t="n">
-        <v>7.825144095567934</v>
+        <v>4.891177175520816</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.019456974373894</v>
+        <v>-3.063204006890033</v>
       </c>
       <c r="G29" t="n">
-        <v>2.180988553949016</v>
+        <v>1.647564491874062</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.382124845561832</v>
       </c>
       <c r="E30" t="n">
-        <v>7.585526442674966</v>
+        <v>4.787041644474683</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.005308903502083</v>
+        <v>-3.035276972630355</v>
       </c>
       <c r="G30" t="n">
-        <v>2.085039496352769</v>
+        <v>1.574393064982157</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.350456305084918</v>
       </c>
       <c r="E31" t="n">
-        <v>7.359602756137314</v>
+        <v>4.63917041812409</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.955611610775696</v>
+        <v>-2.995847793641773</v>
       </c>
       <c r="G31" t="n">
-        <v>2.032034402442968</v>
+        <v>1.512617536528469</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.302658756156002</v>
       </c>
       <c r="E32" t="n">
-        <v>7.161224404222425</v>
+        <v>4.63619237394659</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.877448969250146</v>
+        <v>-2.890055607470472</v>
       </c>
       <c r="G32" t="n">
-        <v>1.95837502962346</v>
+        <v>1.492783321580959</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.242205846985077</v>
       </c>
       <c r="E33" t="n">
-        <v>6.855532576655497</v>
+        <v>4.45884763954964</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.835133039193099</v>
+        <v>-2.825124957688137</v>
       </c>
       <c r="G33" t="n">
-        <v>1.85194300467935</v>
+        <v>1.405576366184416</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.173899871193404</v>
       </c>
       <c r="E34" t="n">
-        <v>6.563027881286826</v>
+        <v>4.326064960495836</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.779022405556972</v>
+        <v>-2.731025372559418</v>
       </c>
       <c r="G34" t="n">
-        <v>1.768858405361493</v>
+        <v>1.335830004900461</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.101856692192873</v>
       </c>
       <c r="E35" t="n">
-        <v>6.213224167845446</v>
+        <v>4.122412070505468</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.787763720747115</v>
+        <v>-2.708424819006222</v>
       </c>
       <c r="G35" t="n">
-        <v>1.645452158213276</v>
+        <v>1.260447081143128</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.028300064652242</v>
       </c>
       <c r="E36" t="n">
-        <v>5.834088608078629</v>
+        <v>3.910977229979389</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.794566631389377</v>
+        <v>-2.636556679946754</v>
       </c>
       <c r="G36" t="n">
-        <v>1.555534741889853</v>
+        <v>1.273180895834451</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9555690847287134</v>
       </c>
       <c r="E37" t="n">
-        <v>5.439844038766445</v>
+        <v>3.680498332104693</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.770190584267354</v>
+        <v>-2.591733337429474</v>
       </c>
       <c r="G37" t="n">
-        <v>1.434472209213254</v>
+        <v>1.165223646361801</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8830378376653824</v>
       </c>
       <c r="E38" t="n">
-        <v>5.094663219484326</v>
+        <v>3.45782814309077</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.768138850342738</v>
+        <v>-2.508872248826842</v>
       </c>
       <c r="G38" t="n">
-        <v>1.329878638602823</v>
+        <v>1.076044445006267</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8111016275903373</v>
       </c>
       <c r="E39" t="n">
-        <v>4.718167289783929</v>
+        <v>3.222993934307435</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.768006632736549</v>
+        <v>-2.457225533418724</v>
       </c>
       <c r="G39" t="n">
-        <v>1.240124920268015</v>
+        <v>0.9937263930004842</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7404711986908191</v>
       </c>
       <c r="E40" t="n">
-        <v>4.358395313247352</v>
+        <v>2.999629602861019</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.784194632389566</v>
+        <v>-2.413151424003183</v>
       </c>
       <c r="G40" t="n">
-        <v>1.180841064083346</v>
+        <v>0.950403090705804</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6715744158227678</v>
       </c>
       <c r="E41" t="n">
-        <v>4.04322316851283</v>
+        <v>2.778169834551376</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.845637255799099</v>
+        <v>-2.395687681852352</v>
       </c>
       <c r="G41" t="n">
-        <v>1.120974820823796</v>
+        <v>0.904385067675457</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6049365881007635</v>
       </c>
       <c r="E42" t="n">
-        <v>3.629190030807655</v>
+        <v>2.48979851339524</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.832867238667986</v>
+        <v>-2.373904831232672</v>
       </c>
       <c r="G42" t="n">
-        <v>1.043520487902831</v>
+        <v>0.8622155213966903</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5381031001463934</v>
       </c>
       <c r="E43" t="n">
-        <v>3.352348399715047</v>
+        <v>2.323654499065468</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.841481845318865</v>
+        <v>-2.370104362064291</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9650068401132318</v>
+        <v>0.8109371264629566</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4705025926399891</v>
       </c>
       <c r="E44" t="n">
-        <v>3.065008061083364</v>
+        <v>2.116938567865049</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.850120062256563</v>
+        <v>-2.304204903512795</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8692655530409961</v>
+        <v>0.7164833870319448</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.403484606754361</v>
       </c>
       <c r="E45" t="n">
-        <v>2.807166414803977</v>
+        <v>1.978442199400922</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.8234687704947</v>
+        <v>-2.233365385949097</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8119854231977428</v>
+        <v>0.6535430844284943</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3376410804398866</v>
       </c>
       <c r="E46" t="n">
-        <v>2.58197464715773</v>
+        <v>1.81263817320135</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.767062221263769</v>
+        <v>-2.17217224457029</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7482644071101271</v>
+        <v>0.6105597702640151</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2738472713256589</v>
       </c>
       <c r="E47" t="n">
-        <v>2.343090487175289</v>
+        <v>1.669262345461192</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.730343503202066</v>
+        <v>-2.114499396956273</v>
       </c>
       <c r="G47" t="n">
-        <v>0.672277060010215</v>
+        <v>0.5511657327408549</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2123056549136994</v>
       </c>
       <c r="E48" t="n">
-        <v>2.143207372980436</v>
+        <v>1.52580939078409</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.632049944124641</v>
+        <v>-1.954838767387137</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5644221217804493</v>
+        <v>0.4233648242059669</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1538431801061559</v>
       </c>
       <c r="E49" t="n">
-        <v>1.970726357668306</v>
+        <v>1.41560129396798</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.584978115292584</v>
+        <v>-1.896395437413243</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5260333694310468</v>
+        <v>0.3639912489313836</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.09954053201076606</v>
       </c>
       <c r="E50" t="n">
-        <v>1.877435818367936</v>
+        <v>1.362486018719688</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.501659774135214</v>
+        <v>-1.766431039596127</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4560178508773496</v>
+        <v>0.2946730208484226</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.04937629774015773</v>
       </c>
       <c r="E51" t="n">
-        <v>1.701117344438075</v>
+        <v>1.237535658813475</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.480954339604064</v>
+        <v>-1.73108644022732</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3936693794635081</v>
+        <v>0.2487462909271112</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.003491135208410156</v>
       </c>
       <c r="E52" t="n">
-        <v>1.560809279965332</v>
+        <v>1.089842296623589</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.442623825962149</v>
+        <v>-1.663588565258143</v>
       </c>
       <c r="G52" t="n">
-        <v>0.336568687800083</v>
+        <v>0.1955806470669378</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.03864904419674602</v>
       </c>
       <c r="E53" t="n">
-        <v>1.483531237185953</v>
+        <v>1.053901144007809</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.385737987908782</v>
+        <v>-1.643571764092562</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3042351870103243</v>
+        <v>0.1717924960867205</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.07704934861718728</v>
       </c>
       <c r="E54" t="n">
-        <v>1.374993174657543</v>
+        <v>0.955685498876889</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.299715481901017</v>
+        <v>-1.518759130859464</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2626165474240128</v>
+        <v>0.1377433144547441</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1120806976753559</v>
       </c>
       <c r="E55" t="n">
-        <v>1.253085393712805</v>
+        <v>0.9104607814836777</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.259889650093867</v>
+        <v>-1.467549992767067</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2202754330610243</v>
+        <v>0.1201693909654219</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1445848510732572</v>
       </c>
       <c r="E56" t="n">
-        <v>1.203993311338558</v>
+        <v>0.8307918036590434</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.234292951143276</v>
+        <v>-1.472904805817732</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1980361168961669</v>
+        <v>0.1294860101444006</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1753613323968258</v>
       </c>
       <c r="E57" t="n">
-        <v>1.137275362843986</v>
+        <v>0.7748495900688956</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.212990176355592</v>
+        <v>-1.479895811744989</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1568912570653669</v>
+        <v>0.08853318064639937</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.204963609752695</v>
       </c>
       <c r="E58" t="n">
-        <v>1.065234081681174</v>
+        <v>0.7294375644002495</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.218957282844443</v>
+        <v>-1.465769777140876</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1401137872514229</v>
+        <v>0.08234256344232375</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2337836818355652</v>
       </c>
       <c r="E59" t="n">
-        <v>1.01782777378584</v>
+        <v>0.709789083709053</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.229622049400816</v>
+        <v>-1.470940429954349</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1277923655698811</v>
+        <v>0.07180765346345826</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2627896745578517</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9627748809992274</v>
+        <v>0.7103100840382035</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.231885488897246</v>
+        <v>-1.510838666641079</v>
       </c>
       <c r="G60" t="n">
-        <v>0.09835978202067956</v>
+        <v>0.07079083711109802</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2925205567551717</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9414689581733012</v>
+        <v>0.7457554206307737</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.226398458240392</v>
+        <v>-1.48678214540068</v>
       </c>
       <c r="G61" t="n">
-        <v>0.08830966993117466</v>
+        <v>0.08500422977644322</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3233308841322249</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8857974758720173</v>
+        <v>0.730764462519506</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.234603819919732</v>
+        <v>-1.531161614525753</v>
       </c>
       <c r="G62" t="n">
-        <v>0.08683796205275852</v>
+        <v>0.0835734463951809</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3553018110511617</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8424694515199732</v>
+        <v>0.6959424374989709</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.276731654691785</v>
+        <v>-1.547063142698693</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05530091493837794</v>
+        <v>0.06774038805401728</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3880723311087993</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7805506873262468</v>
+        <v>0.6688126439242322</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.296853915138493</v>
+        <v>-1.543664048406244</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03480403794080038</v>
+        <v>0.04770469865898082</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4211529641845037</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7393365706541095</v>
+        <v>0.6435213046831728</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.349611101036688</v>
+        <v>-1.606885313422847</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.0111494503055732</v>
+        <v>0.01980993179129003</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4536672988263417</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6862574978456077</v>
+        <v>0.6149906340904765</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.393616740620452</v>
+        <v>-1.627321590684254</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03745445786075029</v>
+        <v>0.006322161940864438</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4848908176437507</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6541742660961358</v>
+        <v>0.5848544639940535</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.461445159605102</v>
+        <v>-1.69968397174781</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.07070403777910601</v>
+        <v>0.01268592124828312</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5138861550446416</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6153337702589201</v>
+        <v>0.5924664204646637</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.516365047775965</v>
+        <v>-1.710931125379065</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.09549326492047056</v>
+        <v>0.008511622538593696</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5394413269989153</v>
       </c>
       <c r="E69" t="n">
-        <v>0.547350310390822</v>
+        <v>0.5779822965104547</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.553012934977209</v>
+        <v>-1.767629655156997</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.09599852505840807</v>
+        <v>0.01155577551918923</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5603054337794339</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4567607879026035</v>
+        <v>0.5073072639449325</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.633420127769734</v>
+        <v>-1.847605566710285</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.123114152461055</v>
+        <v>0.004933877075877231</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5744776038135766</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3433936347100428</v>
+        <v>0.420753526483729</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.700101086814955</v>
+        <v>-1.892774406424691</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1416734119203114</v>
+        <v>-0.004747914539243299</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5806066251125248</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2408998056074272</v>
+        <v>0.3319505156981868</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.792323654141523</v>
+        <v>-1.93610872685322</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1571491679209398</v>
+        <v>0.01400022721456919</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5780208289777715</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1581363061903158</v>
+        <v>0.2803636130166781</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.873248699224956</v>
+        <v>-2.026023782147961</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1805501101973171</v>
+        <v>0.01101588696058309</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5670271897548335</v>
       </c>
       <c r="E74" t="n">
-        <v>0.03077297497114932</v>
+        <v>0.159283766129744</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.903430515875896</v>
+        <v>-2.038434135909856</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2075225018599257</v>
+        <v>-0.02492054359783291</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.549488598470079</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.03590719706451172</v>
+        <v>0.07979894854230185</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.980214316651186</v>
+        <v>-2.054283721451793</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2403738549405924</v>
+        <v>-0.01990571867736892</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5268820083424063</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1101930294942977</v>
+        <v>0.04740878306417629</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.015646274081226</v>
+        <v>-2.118959380136478</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2538018120644085</v>
+        <v>-0.03213742126899657</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5007146524646499</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1778931659205616</v>
+        <v>-0.06443471961896538</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.039860984243315</v>
+        <v>-2.10477904187268</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2687361054873095</v>
+        <v>-0.02364086605221545</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4716404298925865</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2041257685961588</v>
+        <v>-0.09000151220625245</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.000860725465287</v>
+        <v>-2.079700195212996</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2525850952836431</v>
+        <v>0.01785342602351328</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4396250300396932</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.227677816708181</v>
+        <v>-0.138959802955189</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.012695775238347</v>
+        <v>-2.08239176791042</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2506380336305942</v>
+        <v>0.01648088134973908</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4054970559051846</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2274023633619534</v>
+        <v>-0.1241089325457171</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.979276988264452</v>
+        <v>-2.131570421336339</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2204089964060144</v>
+        <v>0.05361986251682881</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3698558042623809</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2052921167650426</v>
+        <v>-0.08425949045174755</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.965377612413806</v>
+        <v>-2.13361585918447</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2134691461001997</v>
+        <v>0.04762442368379449</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3337249078913568</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1151071171909984</v>
+        <v>-0.002676505375611594</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.904454415314302</v>
+        <v>-2.072132311277783</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.225976302038055</v>
+        <v>0.0156151708330237</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2977695354990763</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0522300036327203</v>
+        <v>0.1435687592226779</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.833998958416202</v>
+        <v>-2.035821264168497</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1793097831297322</v>
+        <v>0.04695074349987779</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2619937861073557</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2085867670662454</v>
+        <v>0.2114483338287701</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.71994081082939</v>
+        <v>-1.941649274160198</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1339748843980298</v>
+        <v>0.08824670916632264</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2269064080135082</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3969732455991182</v>
+        <v>0.3767140454888571</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.549646108076747</v>
+        <v>-1.789091405875932</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1056393921763748</v>
+        <v>0.08588725450349291</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1927682108785674</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6471746030637117</v>
+        <v>0.5840312519936133</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.384082906802734</v>
+        <v>-1.643452925648904</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.01872363031727211</v>
+        <v>0.1602533619084652</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1598295016691756</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9239784576974081</v>
+        <v>0.8371555629664621</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.168982962752707</v>
+        <v>-1.435687910704138</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03490005310719973</v>
+        <v>0.1609427822835949</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1280791584026299</v>
       </c>
       <c r="E88" t="n">
-        <v>1.150876462071145</v>
+        <v>1.016713368247959</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9986607146654413</v>
+        <v>-1.282864033188372</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08285884171411038</v>
+        <v>0.176914354307433</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09795760141297886</v>
       </c>
       <c r="E89" t="n">
-        <v>1.383185944183913</v>
+        <v>1.227438326150331</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7638768744939881</v>
+        <v>-1.098621159992323</v>
       </c>
       <c r="G89" t="n">
-        <v>0.137826737468173</v>
+        <v>0.2322238122108178</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.07095913149352867</v>
       </c>
       <c r="E90" t="n">
-        <v>1.577040565144185</v>
+        <v>1.352945888825484</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5062225364900359</v>
+        <v>-0.8509303630262046</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1619249702152865</v>
+        <v>0.2198048013437554</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04856629594951548</v>
       </c>
       <c r="E91" t="n">
-        <v>1.750165354276926</v>
+        <v>1.498550527641405</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2268671968607112</v>
+        <v>-0.5666617227097397</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1215198993714979</v>
+        <v>0.1419443714894956</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.03303729058864185</v>
       </c>
       <c r="E92" t="n">
-        <v>1.792021670750554</v>
+        <v>1.526413814126669</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.03508713310231406</v>
+        <v>-0.3500058607583066</v>
       </c>
       <c r="G92" t="n">
-        <v>0.136780014752508</v>
+        <v>0.1504928693372796</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02633364467486906</v>
       </c>
       <c r="E93" t="n">
-        <v>1.78888307662268</v>
+        <v>1.578734209718704</v>
       </c>
       <c r="F93" t="n">
-        <v>0.174438422229627</v>
+        <v>-0.1431451197987276</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09990389477867553</v>
+        <v>0.1150223484387686</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02880214761441788</v>
       </c>
       <c r="E94" t="n">
-        <v>1.716550601922429</v>
+        <v>1.518465017564101</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3499258140634407</v>
+        <v>0.02161218368517932</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1042277253048885</v>
+        <v>0.100058148652563</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03862441512916032</v>
       </c>
       <c r="E95" t="n">
-        <v>1.677714828142577</v>
+        <v>1.509793746224855</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4527832415830767</v>
+        <v>0.1777092339636898</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0430928226335698</v>
+        <v>0.04250728752044595</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05204576437680936</v>
       </c>
       <c r="E96" t="n">
-        <v>1.562910595492268</v>
+        <v>1.420095118559293</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5218842550272982</v>
+        <v>0.3054031091983294</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02582088253521691</v>
+        <v>-0.02385021059534845</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06509373290012613</v>
       </c>
       <c r="E97" t="n">
-        <v>1.515285498939074</v>
+        <v>1.387190248828502</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5272012916190519</v>
+        <v>0.3256087926584664</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04446986108438745</v>
+        <v>-0.03467474009253328</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07544455540753872</v>
       </c>
       <c r="E98" t="n">
-        <v>1.386866000889514</v>
+        <v>1.237576583310629</v>
       </c>
       <c r="F98" t="n">
-        <v>0.546659315996571</v>
+        <v>0.3694830016456017</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1098152649051855</v>
+        <v>-0.09933229755732292</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08011020166870148</v>
       </c>
       <c r="E99" t="n">
-        <v>1.30707582359254</v>
+        <v>1.154444763419133</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5465711709257782</v>
+        <v>0.3822120942795604</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1118111211509948</v>
+        <v>-0.1021702540330281</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08196784523049404</v>
       </c>
       <c r="E100" t="n">
-        <v>1.195846188366705</v>
+        <v>1.050469782323374</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5522533799536737</v>
+        <v>0.3926871915318165</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.15742776930541</v>
+        <v>-0.1623497270977173</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.08442360878179959</v>
       </c>
       <c r="E101" t="n">
-        <v>1.094070111983403</v>
+        <v>0.9513254659108862</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4966322662642713</v>
+        <v>0.3562218905486434</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1840806350863946</v>
+        <v>-0.1709501675765042</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09794277680554035</v>
       </c>
       <c r="E102" t="n">
-        <v>1.009926197796911</v>
+        <v>0.9195727781768874</v>
       </c>
       <c r="F102" t="n">
-        <v>0.463086770751111</v>
+        <v>0.3296241154369044</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2273205143676457</v>
+        <v>-0.1989582638209287</v>
       </c>
     </row>
   </sheetData>
